--- a/medicine/Enfance/Mouloud_Akkouche/Mouloud_Akkouche.xlsx
+++ b/medicine/Enfance/Mouloud_Akkouche/Mouloud_Akkouche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mouloud Akkouche, né à Montreuil le 4 août 1962, est écrivain français, auteur de roman policier.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il exerce une foule de petits boulots tout en écrivant des nouvelles dont la première sera publiée en 1992. Il a publié « Causse-toujours ! » dans la collection Le Poulpe aux Éditions Baleine, et des romans dans la Série noire, dont le  personnage principal est l'Inspecteur Nassima Benarous.
 Auteur dramatique, Mouloud Akkouche est aussi l'auteur de pièces radiophoniques pour France Inter.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Si à 50 ans, t'as pas ta Rolex, Éditions de l'Atelier, collection Quelqu'un m'a dit : social fiction (2012)  (ISBN 978-2-36224-020-1)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Si à 50 ans, t'as pas ta Rolex, Éditions de l'Atelier, collection Quelqu'un m'a dit : social fiction (2012)  (ISBN 978-2-36224-020-1)
 Code-barre, Éditions de l'Atelier, collection La Porte à côté no 45 (2009)  (ISBN 978-2-916159-72-0)
 Le Silence des géants, Éditions de l'Archipel, collection Archimystère (2009)  (ISBN 978-2-8098-0206-1)
 La Sirène rousse, Éditions La Branche, Suite noire no 22 (2008)  (ISBN 978-2-35306-025-2)
@@ -556,9 +575,43 @@
 Sur la route de Bauliac, Éditions Baleine, collection Série grise no 3 (2000)  (ISBN 2-84219-276-1)
 Les Ardoises de la mémoire, Éditions Gallimard, Série noire no 2525 (1999)  (ISBN 2-07-049851-4)
 Avis déchéance, Éditions Gallimard, Série noire no 2487 (1998)  (ISBN 2-07-049762-3)
-Causse-toujours !, Éditions Baleine,  collection Le Poulpe (1997)  (ISBN 2-84219-038-6)
-Roman jeunesse
-Une marque d'enfer Éditions Albin Michel, collection Le Furet enquête no 14 (1999)  (ISBN 2-226-10213-2)</t>
+Causse-toujours !, Éditions Baleine,  collection Le Poulpe (1997)  (ISBN 2-84219-038-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mouloud_Akkouche</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mouloud_Akkouche</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Roman jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une marque d'enfer Éditions Albin Michel, collection Le Furet enquête no 14 (1999)  (ISBN 2-226-10213-2)</t>
         </is>
       </c>
     </row>
